--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5039,4 +5040,1732 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3265</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2901</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1920</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7633</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6934</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6768,4 +6769,3480 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>398.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1605</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0607</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8567</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4595</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002518</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007072</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10245,4 +10246,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10254,7 +10255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10265,17 +10266,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10285,14 +10306,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.99</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10301,14 +10344,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.43</v>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10317,14 +10382,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.43</v>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10333,13 +10420,1405 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9937</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0302</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5593</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002518</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007072</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>64</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>39.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11717,7 +11718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11728,17 +11729,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11748,14 +11769,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.48</v>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -11764,14 +11807,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.99</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -11780,14 +11845,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.43</v>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -11796,14 +11883,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48.43</v>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2186</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11812,13 +11921,2369 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6804</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>64</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>39.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14166,7 +14167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14177,17 +14178,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14197,14 +14218,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.43</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -14213,14 +14256,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.48</v>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -14229,14 +14294,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.99</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -14245,14 +14332,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.43</v>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -14261,14 +14370,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48.43</v>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -14277,13 +14408,2309 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>35.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>64</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>39.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>15.43</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>30.48</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>48.99</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>35.43</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>48.43</v>
+        <v>35.43</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>39.85</v>
       </c>
     </row>
@@ -600,6 +617,2834 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3929</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4216</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013747</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013748</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业聚盈混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3009,7 +5854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5457,7 +8302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6919,7 +9764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10395,7 +13240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12123,7 +14968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14231,7 +17076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600845-宝信软件.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D2" t="n">
-        <v>14.34</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>15.43</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>30.48</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>48.99</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
-        <v>35.43</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>48.43</v>
+        <v>35.43</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2518 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>64</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>39.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7233</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4810</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3552</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2240</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9637</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7527</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009884</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银康宁平衡养老目标三年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3122,4354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6877</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达品质动能三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0370</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0370</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9911</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014563</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达品质动能三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013248</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>44.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>44.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013249</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>017628</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3444,7 +10297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5854,7 +12707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8302,7 +15155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9764,7 +16617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13240,7 +20093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14968,7 +21821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17074,2492 +23927,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009659</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>民生加银新动能一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>82.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.8303</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>62.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.6763</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达价值成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5492</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001508</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5409</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000136</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>32.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.4147</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006751</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国互联科技股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>63.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.2323</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010116</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>73.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.7233</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>460005</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞价值增长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.5098</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>257070</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国联安优选行业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.4878</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160212</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰估值优势混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.4810</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>020003</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰金龙行业混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.3552</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001956</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安科技动力股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>18.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.2240</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006058</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.0346</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9637</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009660</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>民生加银新动能一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>75.82</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.8299</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001510</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>75.74</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.7982</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001047</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>光大保德信国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7527</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519026</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>海富通中小盘混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6998</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>202011</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方优选价值混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>21.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6548</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>960020</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方优选价值混合H</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>21.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6548</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160611</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华优质治理混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>17.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5797</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001542</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国泰互联网+股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4582</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006072</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>民生加银创新成长混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>82.53</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4141</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>080012</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长盛电子信息产业混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4089</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>150968</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银河研究精选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3729</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3685</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>501096</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>50.14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3461</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000742</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2998</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501200</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2968</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002773</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2716</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2523</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2523</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003593</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国泰景气行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2422</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001463</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>光大保德信一带一路战略主题混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2017</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519033</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>海富通国策导向混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1683</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>501098</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1521</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001097</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极优选股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1402</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005819</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国泰优势行业混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1268</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010117</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>民生加银新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>73.47</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1236</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009884</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>民生加银康宁平衡养老目标三年持有期混合（FOF）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>007853</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华商计算机行业量化股票</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0979</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007305</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>国联安新科技混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>519644</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>银河智联主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005472</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>富国价值驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006081</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004394</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化创优灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>001880</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>长城中国智造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>002810</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>金信转型创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>59.51</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>002862</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>金信量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>56.48</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002774</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>006080</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>011126</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>富国互联科技股票C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>009709</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>民生加银策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005473</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>富国价值驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010037</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>华泰柏瑞价值增长混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>006539</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>南方优选价值混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010000</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>长城中国智造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>